--- a/stat/CHISLO_DOCTORS.xlsx
+++ b/stat/CHISLO_DOCTORS.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\LABORATORKI\data_lab_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sda\stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2287E377-F065-41E5-9094-47E3FE37BC46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9864" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSSTAT" sheetId="1" r:id="rId1"/>
-    <sheet name="List_3" sheetId="5" r:id="rId2"/>
-    <sheet name="DATA" sheetId="2" r:id="rId3"/>
-    <sheet name="FO_2" sheetId="7" r:id="rId4"/>
-    <sheet name="FO_1" sheetId="4" r:id="rId5"/>
-    <sheet name="List_4" sheetId="6" r:id="rId6"/>
-    <sheet name="ITOG" sheetId="3" r:id="rId7"/>
+    <sheet name="part1" sheetId="8" r:id="rId2"/>
+    <sheet name="List_3" sheetId="5" r:id="rId3"/>
+    <sheet name="DATA" sheetId="2" r:id="rId4"/>
+    <sheet name="FO_2" sheetId="7" r:id="rId5"/>
+    <sheet name="FO_1" sheetId="4" r:id="rId6"/>
+    <sheet name="List_4" sheetId="6" r:id="rId7"/>
+    <sheet name="ITOG" sheetId="3" r:id="rId8"/>
+    <sheet name="part2" sheetId="9" r:id="rId9"/>
+    <sheet name="part3" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="114">
   <si>
     <r>
       <t>6.4. ЧИСЛЕННОСТЬ ВРАЧЕЙ всех специальностей</t>
@@ -414,11 +426,17 @@
   <si>
     <t>Число врачей На 10000 человек населения, ЦФО</t>
   </si>
+  <si>
+    <t>ЦФО</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,7 +658,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -768,7 +785,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1027,7 +1043,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1115,7 +1130,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1374,7 +1388,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3374,7 +3387,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3404,7 +3423,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3439,7 +3464,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3533,6 +3564,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3568,6 +3616,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3743,11 +3808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6142,7 +6207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -8157,11 +8222,509 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AE3962-E01D-4F33-B084-08A4067D0949}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="19">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="19">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="14">
+        <v>43.2</v>
+      </c>
+      <c r="C2" s="14">
+        <v>45.2</v>
+      </c>
+      <c r="D2" s="14">
+        <v>46.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A08231-F7F0-405F-90C6-6A522A7D08E3}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="19">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="19">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="19">
+        <v>2015</v>
+      </c>
+      <c r="E1" s="19">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="19">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="19">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16">
+        <v>39.6</v>
+      </c>
+      <c r="C2" s="16">
+        <v>40.4</v>
+      </c>
+      <c r="D2" s="16">
+        <v>41.3</v>
+      </c>
+      <c r="E2" s="16">
+        <v>40.5</v>
+      </c>
+      <c r="F2" s="16">
+        <v>40.4</v>
+      </c>
+      <c r="G2" s="16">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="16">
+        <v>36.4</v>
+      </c>
+      <c r="C3" s="16">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D3" s="16">
+        <v>38</v>
+      </c>
+      <c r="E3" s="16">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F3" s="16">
+        <v>40.5</v>
+      </c>
+      <c r="G3" s="16">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C4" s="16">
+        <v>33.1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E4" s="16">
+        <v>35.1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>36.5</v>
+      </c>
+      <c r="G4" s="16">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="16">
+        <v>53.1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>52.6</v>
+      </c>
+      <c r="D5" s="16">
+        <v>51.7</v>
+      </c>
+      <c r="E5" s="16">
+        <v>52.9</v>
+      </c>
+      <c r="F5" s="16">
+        <v>52.3</v>
+      </c>
+      <c r="G5" s="16">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="16">
+        <v>51</v>
+      </c>
+      <c r="C6" s="16">
+        <v>51.9</v>
+      </c>
+      <c r="D6" s="16">
+        <v>43.8</v>
+      </c>
+      <c r="E6" s="16">
+        <v>44.1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>45.4</v>
+      </c>
+      <c r="G6" s="16">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C7" s="16">
+        <v>39.6</v>
+      </c>
+      <c r="D7" s="16">
+        <v>38.5</v>
+      </c>
+      <c r="E7" s="16">
+        <v>42.6</v>
+      </c>
+      <c r="F7" s="16">
+        <v>43.1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="16">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="C8" s="16">
+        <v>34.6</v>
+      </c>
+      <c r="D8" s="16">
+        <v>36</v>
+      </c>
+      <c r="E8" s="16">
+        <v>38.1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>36.9</v>
+      </c>
+      <c r="G8" s="16">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16">
+        <v>50</v>
+      </c>
+      <c r="C9" s="16">
+        <v>58</v>
+      </c>
+      <c r="D9" s="16">
+        <v>49</v>
+      </c>
+      <c r="E9" s="16">
+        <v>51.3</v>
+      </c>
+      <c r="F9" s="16">
+        <v>52.7</v>
+      </c>
+      <c r="G9" s="16">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="16">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C10" s="16">
+        <v>40.4</v>
+      </c>
+      <c r="D10" s="16">
+        <v>42.5</v>
+      </c>
+      <c r="E10" s="16">
+        <v>42.3</v>
+      </c>
+      <c r="F10" s="16">
+        <v>41.2</v>
+      </c>
+      <c r="G10" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="16">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C11" s="16">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D11" s="16">
+        <v>38</v>
+      </c>
+      <c r="E11" s="16">
+        <v>42.6</v>
+      </c>
+      <c r="F11" s="16">
+        <v>46.5</v>
+      </c>
+      <c r="G11" s="16">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="16">
+        <v>37.6</v>
+      </c>
+      <c r="C12" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="D12" s="16">
+        <v>44.5</v>
+      </c>
+      <c r="E12" s="16">
+        <v>44.8</v>
+      </c>
+      <c r="F12" s="16">
+        <v>45.2</v>
+      </c>
+      <c r="G12" s="16">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="16">
+        <v>53.3</v>
+      </c>
+      <c r="C13" s="16">
+        <v>56.8</v>
+      </c>
+      <c r="D13" s="16">
+        <v>47.9</v>
+      </c>
+      <c r="E13" s="16">
+        <v>52.6</v>
+      </c>
+      <c r="F13" s="16">
+        <v>54</v>
+      </c>
+      <c r="G13" s="16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="16">
+        <v>59.7</v>
+      </c>
+      <c r="C14" s="16">
+        <v>59.7</v>
+      </c>
+      <c r="D14" s="16">
+        <v>50.1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>51.6</v>
+      </c>
+      <c r="F14" s="16">
+        <v>51</v>
+      </c>
+      <c r="G14" s="16">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="16">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C15" s="16">
+        <v>34</v>
+      </c>
+      <c r="D15" s="16">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E15" s="16">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F15" s="16">
+        <v>42.4</v>
+      </c>
+      <c r="G15" s="16">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="16">
+        <v>51.6</v>
+      </c>
+      <c r="C16" s="16">
+        <v>53.1</v>
+      </c>
+      <c r="D16" s="16">
+        <v>43.4</v>
+      </c>
+      <c r="E16" s="16">
+        <v>45.4</v>
+      </c>
+      <c r="F16" s="16">
+        <v>45.9</v>
+      </c>
+      <c r="G16" s="16">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="16">
+        <v>33.9</v>
+      </c>
+      <c r="C17" s="16">
+        <v>33.1</v>
+      </c>
+      <c r="D17" s="16">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E17" s="16">
+        <v>38.5</v>
+      </c>
+      <c r="F17" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="G17" s="16">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="16">
+        <v>58.1</v>
+      </c>
+      <c r="C18" s="16">
+        <v>62.9</v>
+      </c>
+      <c r="D18" s="16">
+        <v>52.7</v>
+      </c>
+      <c r="E18" s="16">
+        <v>50.3</v>
+      </c>
+      <c r="F18" s="16">
+        <v>55.2</v>
+      </c>
+      <c r="G18" s="16">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="16">
+        <v>72.7</v>
+      </c>
+      <c r="C19" s="16">
+        <v>77.7</v>
+      </c>
+      <c r="D19" s="16">
+        <v>55.7</v>
+      </c>
+      <c r="E19" s="16">
+        <v>61.2</v>
+      </c>
+      <c r="F19" s="16">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G19" s="16">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8715,12 +9278,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10975,8 +11538,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11303,11 +11866,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11762,8 +12327,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11834,11 +12399,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -11914,4 +12481,65 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFCDB98-5CFC-4C65-9995-A5C151AC396F}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="19">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="19">
+        <v>2015</v>
+      </c>
+      <c r="E1" s="19">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="19">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="19">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="14">
+        <v>48.6</v>
+      </c>
+      <c r="C2" s="14">
+        <v>50.1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>45.9</v>
+      </c>
+      <c r="E2" s="14">
+        <v>48.7</v>
+      </c>
+      <c r="F2" s="14">
+        <v>50.4</v>
+      </c>
+      <c r="G2" s="14">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>